--- a/Mifos Automation Excels/Client/4446-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLGloan-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-DuringAPP-Change-DISDATEotherthanmeetingdate.xlsx
+++ b/Mifos Automation Excels/Client/4446-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLGloan-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-DuringAPP-Change-DISDATEotherthanmeetingdate.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
   </bookViews>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>submittedon</t>
   </si>
@@ -208,9 +203,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -269,12 +261,6 @@
   </si>
   <si>
     <t>approveexpecteddisbursementon</t>
-  </si>
-  <si>
-    <t>verify1</t>
-  </si>
-  <si>
-    <t>The disbursement date must be a valid meeting date when it is synced with meeting</t>
   </si>
   <si>
     <t>selectRepeatevery</t>
@@ -286,12 +272,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,6 +305,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -340,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,41 +354,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,13 +398,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,26 +500,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,23 +535,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -881,7 +809,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -892,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -936,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1014,10 +942,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1052,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9">
         <v>42007</v>
@@ -1136,14 +1064,6 @@
       </c>
       <c r="B14" s="9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1357,70 +1277,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="23">
-        <v>42013</v>
+      <c r="C2" s="21">
+        <v>42007</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1436,34 +1352,35 @@
       <c r="K2" s="20">
         <v>0</v>
       </c>
-      <c r="L2" s="20">
-        <v>0</v>
-      </c>
+      <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="20">
-        <v>7</v>
-      </c>
-      <c r="C3" s="23">
-        <v>42020</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42013</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20">
-        <v>824.77</v>
-      </c>
-      <c r="G3" s="24">
-        <v>8329.34</v>
+        <v>822.81</v>
+      </c>
+      <c r="G3" s="22">
+        <v>9177.19</v>
       </c>
       <c r="H3" s="20">
-        <v>21.12</v>
+        <v>23.08</v>
       </c>
       <c r="I3" s="20">
         <v>0</v>
@@ -1477,37 +1394,38 @@
       <c r="L3" s="20">
         <v>0</v>
       </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
       <c r="O3" s="20">
         <v>0</v>
       </c>
+      <c r="P3" s="20"/>
       <c r="Q3" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="20">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
-        <v>42027</v>
+      <c r="C4" s="21">
+        <v>42020</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20">
-        <v>826.67</v>
-      </c>
-      <c r="G4" s="24">
-        <v>7502.67</v>
+        <v>824.71</v>
+      </c>
+      <c r="G4" s="22">
+        <v>8352.48</v>
       </c>
       <c r="H4" s="20">
-        <v>19.22</v>
+        <v>21.18</v>
       </c>
       <c r="I4" s="20">
         <v>0</v>
@@ -1521,37 +1439,38 @@
       <c r="L4" s="20">
         <v>0</v>
       </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
       <c r="O4" s="20">
         <v>0</v>
       </c>
+      <c r="P4" s="20"/>
       <c r="Q4" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
-        <v>42034</v>
+      <c r="C5" s="21">
+        <v>42027</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20">
-        <v>828.58</v>
-      </c>
-      <c r="G5" s="24">
-        <v>6674.09</v>
+        <v>826.62</v>
+      </c>
+      <c r="G5" s="22">
+        <v>7525.86</v>
       </c>
       <c r="H5" s="20">
-        <v>17.309999999999999</v>
+        <v>19.27</v>
       </c>
       <c r="I5" s="20">
         <v>0</v>
@@ -1565,37 +1484,38 @@
       <c r="L5" s="20">
         <v>0</v>
       </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
       <c r="O5" s="20">
         <v>0</v>
       </c>
+      <c r="P5" s="20"/>
       <c r="Q5" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="20">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
-        <v>42041</v>
+      <c r="C6" s="21">
+        <v>42034</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20">
-        <v>830.49</v>
-      </c>
-      <c r="G6" s="24">
-        <v>5843.6</v>
+        <v>828.52</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6697.34</v>
       </c>
       <c r="H6" s="20">
-        <v>15.4</v>
+        <v>17.37</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
@@ -1609,37 +1529,38 @@
       <c r="L6" s="20">
         <v>0</v>
       </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
       <c r="O6" s="20">
         <v>0</v>
       </c>
+      <c r="P6" s="20"/>
       <c r="Q6" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="20">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
-        <v>42048</v>
+      <c r="C7" s="21">
+        <v>42041</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
-        <v>832.4</v>
-      </c>
-      <c r="G7" s="24">
-        <v>5011.2</v>
+        <v>830.43</v>
+      </c>
+      <c r="G7" s="22">
+        <v>5866.91</v>
       </c>
       <c r="H7" s="20">
-        <v>13.49</v>
+        <v>15.46</v>
       </c>
       <c r="I7" s="20">
         <v>0</v>
@@ -1653,37 +1574,38 @@
       <c r="L7" s="20">
         <v>0</v>
       </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
       <c r="O7" s="20">
         <v>0</v>
       </c>
+      <c r="P7" s="20"/>
       <c r="Q7" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="20">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
-        <v>42055</v>
+      <c r="C8" s="21">
+        <v>42048</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20">
-        <v>834.33</v>
-      </c>
-      <c r="G8" s="24">
-        <v>4176.87</v>
+        <v>832.35</v>
+      </c>
+      <c r="G8" s="22">
+        <v>5034.5600000000004</v>
       </c>
       <c r="H8" s="20">
-        <v>11.56</v>
+        <v>13.54</v>
       </c>
       <c r="I8" s="20">
         <v>0</v>
@@ -1697,37 +1619,38 @@
       <c r="L8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
       <c r="O8" s="20">
         <v>0</v>
       </c>
+      <c r="P8" s="20"/>
       <c r="Q8" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
-        <v>42062</v>
+      <c r="C9" s="21">
+        <v>42055</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
-        <v>836.25</v>
-      </c>
-      <c r="G9" s="24">
-        <v>3340.62</v>
+        <v>834.27</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4200.29</v>
       </c>
       <c r="H9" s="20">
-        <v>9.64</v>
+        <v>11.62</v>
       </c>
       <c r="I9" s="20">
         <v>0</v>
@@ -1741,37 +1664,38 @@
       <c r="L9" s="20">
         <v>0</v>
       </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
       <c r="O9" s="20">
         <v>0</v>
       </c>
+      <c r="P9" s="20"/>
       <c r="Q9" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="23">
-        <v>42069</v>
+      <c r="C10" s="21">
+        <v>42062</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20">
-        <v>838.18</v>
-      </c>
-      <c r="G10" s="24">
-        <v>2502.44</v>
+        <v>836.2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3364.09</v>
       </c>
       <c r="H10" s="20">
-        <v>7.71</v>
+        <v>9.69</v>
       </c>
       <c r="I10" s="20">
         <v>0</v>
@@ -1785,37 +1709,38 @@
       <c r="L10" s="20">
         <v>0</v>
       </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
       <c r="O10" s="20">
         <v>0</v>
       </c>
+      <c r="P10" s="20"/>
       <c r="Q10" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="23">
-        <v>42076</v>
+      <c r="C11" s="21">
+        <v>42069</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20">
-        <v>840.12</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1662.32</v>
+        <v>838.13</v>
+      </c>
+      <c r="G11" s="22">
+        <v>2525.96</v>
       </c>
       <c r="H11" s="20">
-        <v>5.77</v>
+        <v>7.76</v>
       </c>
       <c r="I11" s="20">
         <v>0</v>
@@ -1829,37 +1754,38 @@
       <c r="L11" s="20">
         <v>0</v>
       </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
       <c r="O11" s="20">
         <v>0</v>
       </c>
+      <c r="P11" s="20"/>
       <c r="Q11" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="23">
-        <v>42083</v>
+      <c r="C12" s="21">
+        <v>42076</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20">
-        <v>842.05</v>
-      </c>
-      <c r="G12" s="20">
-        <v>820.27</v>
+        <v>840.06</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1685.9</v>
       </c>
       <c r="H12" s="20">
-        <v>3.84</v>
+        <v>5.83</v>
       </c>
       <c r="I12" s="20">
         <v>0</v>
@@ -1873,37 +1799,38 @@
       <c r="L12" s="20">
         <v>0</v>
       </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
       <c r="O12" s="20">
         <v>0</v>
       </c>
+      <c r="P12" s="20"/>
       <c r="Q12" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="23">
-        <v>42090</v>
+      <c r="C13" s="21">
+        <v>42083</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20">
-        <v>820.27</v>
+        <v>842</v>
       </c>
       <c r="G13" s="20">
-        <v>0</v>
+        <v>843.9</v>
       </c>
       <c r="H13" s="20">
-        <v>1.89</v>
+        <v>3.89</v>
       </c>
       <c r="I13" s="20">
         <v>0</v>
@@ -1912,20 +1839,66 @@
         <v>0</v>
       </c>
       <c r="K13" s="20">
-        <v>822.16</v>
+        <v>845.89</v>
       </c>
       <c r="L13" s="20">
         <v>0</v>
       </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
       <c r="O13" s="20">
         <v>0</v>
       </c>
+      <c r="P13" s="20"/>
       <c r="Q13" s="20">
-        <v>822.16</v>
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>42090</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
+        <v>843.9</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1.95</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>845.85</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
+        <v>845.85</v>
       </c>
     </row>
   </sheetData>
@@ -1945,34 +1918,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1980,13 +1953,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="E2" s="19">
         <v>10000</v>
